--- a/biology/Médecine/Jacques_Raige-Delorme/Jacques_Raige-Delorme.xlsx
+++ b/biology/Médecine/Jacques_Raige-Delorme/Jacques_Raige-Delorme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Raige-Delorme, né le 18 novembre 1795 à Montargis et mort le 22 janvier 1887 à Paris, est un médecin et bibliothécaire français, connu pour son travail sur les dictionnaires médicaux.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l’issue de ses études à la faculté de médecine de Paris, Raige-Delorme a reçu, le 30 août 1819, son doctorat avec la thèse intitulée Considérations médico-légales sur l’empoisonnement par les substances corrosives[1],[2],[3]. Nommé sous-bibliothécaire de la Faculté le 18 février 1836 puis bibliothécaire adjoint le 23 mai 1844, il est devenu titulaire en 1852, à la mort de Jean-Eugène Dezeimeris[1],[4].
-Auteur de quelques opuscules, il s’est fait surtout connaitre comme rédacteur principal, de 1823 à 1854, des Archives générales de médecine, dont il fut l’un des fondateurs[5]. Lui-même a entrepris la publication d’une Dictionnaire encyclopédique des sciences médicales, important ouvrage de cinq parties composant un total de 100 volumes, ouvrage classique de la terminologie médicale[6],[7], dont il a partagé, dès le début, la direction avec Amédée Dechambre[8]. Il a collaboré, en outre, à plusieurs publications importantes, telles que le Dictionnaire de médecine de Adelon, Béclard, Biett, Dulieu[9], le Dictionnaire historique de la médecine ancienne et moderne[10], toujours utile[11], le Nouveau Dictionnaire des sciences médicales et vétérinaires[12], le Nouveau dictionnaire lexicographique et descriptif des sciences médicales et vétérinaires[13].
-Parmi ses autres écrits, on relève les nécrologies de Pierre-Augustin Béclard, Étienne-Jean Georget[14], Antonin Jean Desormeaux, Jean-Eugène Dezeimeris et Isidore Valleix.
-Il parait avoir signalé pour la première fois le symptôme de la phlegmatia, en 1841[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l’issue de ses études à la faculté de médecine de Paris, Raige-Delorme a reçu, le 30 août 1819, son doctorat avec la thèse intitulée Considérations médico-légales sur l’empoisonnement par les substances corrosives. Nommé sous-bibliothécaire de la Faculté le 18 février 1836 puis bibliothécaire adjoint le 23 mai 1844, il est devenu titulaire en 1852, à la mort de Jean-Eugène Dezeimeris,.
+Auteur de quelques opuscules, il s’est fait surtout connaitre comme rédacteur principal, de 1823 à 1854, des Archives générales de médecine, dont il fut l’un des fondateurs. Lui-même a entrepris la publication d’une Dictionnaire encyclopédique des sciences médicales, important ouvrage de cinq parties composant un total de 100 volumes, ouvrage classique de la terminologie médicale dont il a partagé, dès le début, la direction avec Amédée Dechambre. Il a collaboré, en outre, à plusieurs publications importantes, telles que le Dictionnaire de médecine de Adelon, Béclard, Biett, Dulieu, le Dictionnaire historique de la médecine ancienne et moderne, toujours utile, le Nouveau Dictionnaire des sciences médicales et vétérinaires, le Nouveau dictionnaire lexicographique et descriptif des sciences médicales et vétérinaires.
+Parmi ses autres écrits, on relève les nécrologies de Pierre-Augustin Béclard, Étienne-Jean Georget, Antonin Jean Desormeaux, Jean-Eugène Dezeimeris et Isidore Valleix.
+Il parait avoir signalé pour la première fois le symptôme de la phlegmatia, en 1841.
 </t>
         </is>
       </c>
